--- a/raw data/40 pakage name.xlsx
+++ b/raw data/40 pakage name.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huthvincent/Desktop/paper_works/extract_condition/code/raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huthvincent/Documents/research/malicious_library_hunting/data_policy_analyzer/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC340C-C2C6-2D47-B496-05BA109BAFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4069B-68E2-6E4F-89BA-1F1F34EE336F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>sdk API url</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>https://developer.paypal.com/docs/</t>
+  </si>
+  <si>
+    <t>https://www.tapjoy.com/legal/publishers/publishers-terms-of-service/ </t>
+  </si>
+  <si>
+    <t>https://www.appbrain.com/info/help/publisher-tos.html </t>
+  </si>
+  <si>
+    <t>https://developers.ironsrc.com/ironsource-mobile/android/publisher-terms-conditions/</t>
   </si>
 </sst>
 </file>
@@ -432,13 +441,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -488,14 +490,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
@@ -504,7 +498,20 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -532,8 +539,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -542,28 +550,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,21 +789,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="86.5" customWidth="1"/>
+    <col min="1" max="1" width="86.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="91.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -805,7 +814,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -820,14 +829,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -854,7 +863,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -865,7 +874,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -876,7 +885,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -887,7 +896,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -898,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -909,7 +918,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -920,18 +929,18 @@
       <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -979,97 +988,99 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="22" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1096,7 +1107,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1107,7 +1118,7 @@
       <c r="B33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1129,340 +1140,340 @@
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="14">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1471,29 +1482,44 @@
       <c r="C47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1575,6 +1601,9 @@
     <hyperlink ref="B46" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
     <hyperlink ref="A47" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
     <hyperlink ref="B47" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A48" r:id="rId79" display="https://www.tapjoy.com/legal/publishers/publishers-terms-of-service/" xr:uid="{4F418A6F-62EB-3E4E-A64F-0459A715C0C3}"/>
+    <hyperlink ref="A49" r:id="rId80" display="https://www.appbrain.com/info/help/publisher-tos.html" xr:uid="{79F48751-23CD-A04F-B6BF-3EDBC2529CB4}"/>
+    <hyperlink ref="A50" r:id="rId81" xr:uid="{20D74E36-615B-904D-BD6E-2F3BF281DD76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
